--- a/Book1.xlsx
+++ b/Book1.xlsx
@@ -8,14 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/bsmith/code/zaroff/project_CAR/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{5F985032-2510-6148-B4E4-BD1290C73BAC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9389EFB3-AA8C-744B-856A-E10F33F0520D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="17540" yWindow="500" windowWidth="18300" windowHeight="17440" xr2:uid="{8EAD93B9-932C-8A47-BB6B-B360F7A9E003}"/>
+    <workbookView xWindow="24400" yWindow="500" windowWidth="13980" windowHeight="20720" xr2:uid="{8EAD93B9-932C-8A47-BB6B-B360F7A9E003}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="19">
   <si>
     <t>handle (traction) (reserse)</t>
   </si>
@@ -47,9 +47,6 @@
     <t>chev 666</t>
   </si>
   <si>
-    <t>speed (boost)</t>
-  </si>
-  <si>
     <t>black</t>
   </si>
   <si>
@@ -83,26 +80,50 @@
     <t>speed</t>
   </si>
   <si>
-    <t>light</t>
-  </si>
-  <si>
-    <t>heavy</t>
-  </si>
-  <si>
     <t>control</t>
   </si>
   <si>
     <t>acceleration (mass) (reverse)</t>
+  </si>
+  <si>
+    <t>top speed</t>
+  </si>
+  <si>
+    <t>acceleration (boost)</t>
+  </si>
+  <si>
+    <t>handle (traction)</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -128,8 +149,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -444,15 +469,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7939AD10-D1DF-3847-AC6F-59C8F961D84E}">
-  <dimension ref="A1:K6"/>
+  <dimension ref="A1:K23"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C9" sqref="C9"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="A15" sqref="A15:XFD15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="25.5" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="15.1640625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:11" x14ac:dyDescent="0.2">
@@ -460,101 +485,101 @@
         <v>2</v>
       </c>
       <c r="C1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D1" t="s">
         <v>4</v>
       </c>
-      <c r="D1" t="s">
+      <c r="E1" t="s">
         <v>5</v>
       </c>
-      <c r="E1" t="s">
+      <c r="F1" t="s">
         <v>6</v>
       </c>
-      <c r="F1" t="s">
+      <c r="G1" t="s">
         <v>7</v>
       </c>
-      <c r="G1" t="s">
+      <c r="H1" t="s">
         <v>8</v>
       </c>
-      <c r="H1" t="s">
+      <c r="I1" t="s">
         <v>9</v>
       </c>
-      <c r="I1" t="s">
+      <c r="J1" t="s">
         <v>10</v>
       </c>
-      <c r="J1" t="s">
+      <c r="K1" t="s">
         <v>11</v>
-      </c>
-      <c r="K1" t="s">
-        <v>12</v>
       </c>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>3</v>
+        <v>16</v>
       </c>
       <c r="B2">
-        <v>1000</v>
+        <v>140</v>
       </c>
       <c r="C2">
-        <v>500</v>
+        <v>194</v>
       </c>
       <c r="D2">
-        <v>1000</v>
+        <v>162</v>
       </c>
       <c r="E2">
-        <v>3000</v>
+        <v>180</v>
       </c>
       <c r="F2">
-        <v>1200</v>
+        <v>147</v>
       </c>
       <c r="G2">
-        <v>1100</v>
+        <v>184</v>
       </c>
       <c r="H2">
-        <v>400</v>
+        <v>221</v>
       </c>
       <c r="I2">
-        <v>900</v>
+        <v>203</v>
       </c>
       <c r="J2">
-        <v>3300</v>
+        <v>206</v>
       </c>
       <c r="K2">
-        <v>1000</v>
+        <v>184</v>
       </c>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="B3">
         <v>1000</v>
       </c>
       <c r="C3">
-        <v>2000</v>
+        <v>1000</v>
       </c>
       <c r="D3">
-        <v>3000</v>
+        <v>1000</v>
       </c>
       <c r="E3">
-        <v>500</v>
+        <v>1000</v>
       </c>
       <c r="F3">
-        <v>700</v>
+        <v>1000</v>
       </c>
       <c r="G3">
-        <v>900</v>
+        <v>1000</v>
       </c>
       <c r="H3">
-        <v>2100</v>
+        <v>1000</v>
       </c>
       <c r="I3">
-        <v>3100</v>
+        <v>1000</v>
       </c>
       <c r="J3">
-        <v>300</v>
+        <v>1000</v>
       </c>
       <c r="K3">
-        <v>500</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.2">
@@ -565,31 +590,31 @@
         <v>0.5</v>
       </c>
       <c r="C4">
-        <v>0.1</v>
+        <v>0.5</v>
       </c>
       <c r="D4">
-        <v>0.3</v>
+        <v>0.5</v>
       </c>
       <c r="E4">
-        <v>0.9</v>
+        <v>0.5</v>
       </c>
       <c r="F4">
-        <v>0.7</v>
+        <v>0.5</v>
       </c>
       <c r="G4">
         <v>0.5</v>
       </c>
       <c r="H4">
-        <v>0.2</v>
+        <v>0.5</v>
       </c>
       <c r="I4">
-        <v>0.4</v>
+        <v>0.5</v>
       </c>
       <c r="J4">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="K4">
-        <v>0.4</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.2">
@@ -600,64 +625,286 @@
         <v>15000</v>
       </c>
       <c r="C5">
-        <v>20000</v>
+        <v>15000</v>
       </c>
       <c r="D5">
-        <v>25000</v>
+        <v>15000</v>
       </c>
       <c r="E5">
-        <v>10000</v>
+        <v>15000</v>
       </c>
       <c r="F5">
-        <v>5000</v>
+        <v>15000</v>
       </c>
       <c r="G5">
         <v>15000</v>
       </c>
       <c r="H5">
-        <v>19000</v>
+        <v>15000</v>
       </c>
       <c r="I5">
-        <v>22000</v>
+        <v>15000</v>
       </c>
       <c r="J5">
-        <v>7000</v>
+        <v>15000</v>
       </c>
       <c r="K5">
-        <v>5500</v>
+        <v>15000</v>
       </c>
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.2">
       <c r="B6" t="s">
+        <v>14</v>
+      </c>
+      <c r="C6" t="s">
         <v>13</v>
       </c>
-      <c r="C6" t="s">
+      <c r="D6" t="s">
+        <v>14</v>
+      </c>
+      <c r="E6" t="s">
+        <v>12</v>
+      </c>
+      <c r="F6" t="s">
+        <v>14</v>
+      </c>
+      <c r="G6" t="s">
+        <v>12</v>
+      </c>
+      <c r="H6" t="s">
+        <v>13</v>
+      </c>
+      <c r="I6" t="s">
+        <v>13</v>
+      </c>
+      <c r="J6" t="s">
+        <v>13</v>
+      </c>
+      <c r="K6" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="H12" s="2"/>
+    </row>
+    <row r="13" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="B13" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="C13" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="D13" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="E13" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="F13" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="G13" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="H13" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="I13" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="J13" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="K13" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A14" t="s">
+        <v>16</v>
+      </c>
+      <c r="B14" s="4">
+        <v>140</v>
+      </c>
+      <c r="C14" s="3">
+        <v>147</v>
+      </c>
+      <c r="D14" s="2">
+        <v>162</v>
+      </c>
+      <c r="E14" s="2">
+        <v>180</v>
+      </c>
+      <c r="F14" s="3">
+        <v>184</v>
+      </c>
+      <c r="G14" s="4">
+        <v>184</v>
+      </c>
+      <c r="H14" s="2">
+        <v>194</v>
+      </c>
+      <c r="I14" s="3">
+        <v>203</v>
+      </c>
+      <c r="J14" s="3">
+        <v>206</v>
+      </c>
+      <c r="K14" s="3">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="15" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A15" t="s">
         <v>17</v>
       </c>
-      <c r="D6" t="s">
-        <v>16</v>
-      </c>
-      <c r="E6" t="s">
+      <c r="B15" s="4">
+        <v>700</v>
+      </c>
+      <c r="C15" s="3">
+        <v>850</v>
+      </c>
+      <c r="D15" s="2">
+        <v>900</v>
+      </c>
+      <c r="E15" s="2">
+        <v>960</v>
+      </c>
+      <c r="F15" s="3">
+        <v>1000</v>
+      </c>
+      <c r="G15" s="4">
+        <v>1000</v>
+      </c>
+      <c r="H15" s="2">
+        <v>1200</v>
+      </c>
+      <c r="I15" s="3">
+        <v>1350</v>
+      </c>
+      <c r="J15" s="3">
+        <v>1400</v>
+      </c>
+      <c r="K15" s="3">
+        <v>1500</v>
+      </c>
+    </row>
+    <row r="16" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A16" t="s">
+        <v>18</v>
+      </c>
+      <c r="B16" s="4">
+        <v>1</v>
+      </c>
+      <c r="C16" s="3">
+        <v>0.85</v>
+      </c>
+      <c r="D16" s="2">
+        <v>0.7</v>
+      </c>
+      <c r="E16" s="2">
+        <v>0.65</v>
+      </c>
+      <c r="F16" s="3">
+        <v>0.5</v>
+      </c>
+      <c r="G16" s="4">
+        <v>0.5</v>
+      </c>
+      <c r="H16" s="2">
+        <v>0.55000000000000004</v>
+      </c>
+      <c r="I16" s="3">
+        <v>0.3</v>
+      </c>
+      <c r="J16" s="3">
+        <v>0.25</v>
+      </c>
+      <c r="K16" s="3">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="17" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A17" t="s">
+        <v>1</v>
+      </c>
+      <c r="B17" s="4">
+        <v>19000</v>
+      </c>
+      <c r="C17" s="3">
+        <v>18500</v>
+      </c>
+      <c r="D17" s="2">
+        <v>17000</v>
+      </c>
+      <c r="E17" s="2">
+        <v>16500</v>
+      </c>
+      <c r="F17" s="3">
+        <v>15000</v>
+      </c>
+      <c r="G17" s="4">
+        <v>15000</v>
+      </c>
+      <c r="H17" s="2">
+        <v>14350</v>
+      </c>
+      <c r="I17" s="3">
+        <v>13000</v>
+      </c>
+      <c r="J17" s="3">
+        <v>12500</v>
+      </c>
+      <c r="K17" s="3">
+        <v>11000</v>
+      </c>
+    </row>
+    <row r="18" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="B18" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="F6" t="s">
-        <v>15</v>
-      </c>
-      <c r="G6" t="s">
+      <c r="C18" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="D18" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="E18" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="F18" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="G18" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="H18" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="H6" t="s">
-        <v>17</v>
-      </c>
-      <c r="I6" t="s">
-        <v>16</v>
-      </c>
-      <c r="J6" t="s">
-        <v>14</v>
-      </c>
-      <c r="K6" t="s">
-        <v>15</v>
-      </c>
+      <c r="I18" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="J18" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="K18" s="3" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="19" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="H19" s="1"/>
+    </row>
+    <row r="20" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="H20" s="1"/>
+    </row>
+    <row r="21" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="H21" s="1"/>
+    </row>
+    <row r="22" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="H22" s="1"/>
+    </row>
+    <row r="23" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="H23" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
